--- a/ResultadoEleicoesDistritos/SANTARÉM_ALMEIRIM.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_ALMEIRIM.xlsx
@@ -597,64 +597,64 @@
         <v>5897</v>
       </c>
       <c r="H2" t="n">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="I2" t="n">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="J2" t="n">
-        <v>2423</v>
+        <v>2380</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S2" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T2" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="U2" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V2" t="n">
-        <v>3742</v>
+        <v>3883</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3801</v>
+        <v>3765</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
